--- a/crm/archivos/excel/Libro1.xlsx
+++ b/crm/archivos/excel/Libro1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>nombredespacho</t>
   </si>
@@ -42,58 +42,13 @@
     <t>gerente</t>
   </si>
   <si>
-    <t>lopez</t>
-  </si>
-  <si>
-    <t>cuna</t>
-  </si>
-  <si>
-    <t>juan</t>
+    <t>marcos2</t>
+  </si>
+  <si>
+    <t>prueba2</t>
   </si>
   <si>
     <t>aaa@gmail.com</t>
-  </si>
-  <si>
-    <t>javelly</t>
-  </si>
-  <si>
-    <t>huma</t>
-  </si>
-  <si>
-    <t>ñacu</t>
-  </si>
-  <si>
-    <t>pedro</t>
-  </si>
-  <si>
-    <t>asesores crea</t>
-  </si>
-  <si>
-    <t>safar</t>
-  </si>
-  <si>
-    <t>diaz</t>
-  </si>
-  <si>
-    <t>heidi</t>
-  </si>
-  <si>
-    <t>mmm@gmail.com</t>
-  </si>
-  <si>
-    <t>porto</t>
-  </si>
-  <si>
-    <t>bello</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
-    <t>maskdm@msn.com</t>
-  </si>
-  <si>
-    <t>jjj@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -109,11 +64,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF1C2A47"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,22 +87,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -456,7 +402,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -486,6 +432,9 @@
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -493,74 +442,15 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1651651</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>98465</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
